--- a/biology/Zoologie/Dolomedes_mankorlod/Dolomedes_mankorlod.xlsx
+++ b/biology/Zoologie/Dolomedes_mankorlod/Dolomedes_mankorlod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes mankorlod est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes mankorlod est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie[1]. Elle se rencontre vers Maningrida[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie. Elle se rencontre vers Maningrida.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12,80 mm et la femelle paratype 17,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12,80 mm et la femelle paratype 17,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Mankorlod.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
